--- a/Assets/ExcelParser/bin/Debug/Stage.xlsx
+++ b/Assets/ExcelParser/bin/Debug/Stage.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\ExcelParser\ExcelParser\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\LittleAdventure_Portfolio\Assets\ExcelParser\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
+    <sheet name="Monsters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +64,33 @@
   <si>
     <t>MissionTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cactus</t>
   </si>
 </sst>
 </file>
@@ -435,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,4 +547,82 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>